--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -1,8 +1,88 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+</workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10,39 +90,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -112,140 +192,272 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="50.00390625" customWidth="1"/>
+    <col min="2" max="2" width="25.00390625" customWidth="1"/>
+    <col min="3" max="3" width="25.00390625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>source_branch</v>
+      </c>
+      <c r="C1" t="str">
+        <v>target_branch</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>jms-lead-microproject-frontend-static</v>
+      </c>
+      <c r="B2" t="str">
+        <v>tapd_1018072_scrollbar</v>
+      </c>
+      <c r="C2" t="str">
+        <v>staging</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>jms-lead-microproject-frontend-static</v>
+      </c>
+      <c r="B3" t="str">
+        <v>tapd_1018072_scrollbar</v>
+      </c>
+      <c r="C3" t="str">
+        <v>staging</v>
+      </c>
+      <c r="D3" t="str">
+        <v>https://jgit.jingsocial.com:8000/jingsocial_fontend/jms-lead-microproject-frontend-static/merge_requests/1337</v>
+      </c>
+      <c r="E3" t="str">
+        <v>无冲突</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -1,62 +1,417 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>source_branch</t>
+  </si>
+  <si>
+    <t>target_branch</t>
+  </si>
+  <si>
+    <t>jms-website-editor-landing-page-frontend-static</t>
+  </si>
+  <si>
+    <t>tapd_1029476_eventServiceV1_staging</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,18 +419,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,69 +1045,55 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="50.00390625" customWidth="1"/>
-    <col min="2" max="2" width="25.00390625" customWidth="1"/>
-    <col min="3" max="3" width="25.00390625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="7" width="33.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>source_branch</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>target_branch</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>jms-lead-microproject-frontend-static</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" t="str">
-        <v>tapd_1018072_scrollbar</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" t="str">
-        <v>staging</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>jms-lead-microproject-frontend-static</v>
-      </c>
-      <c r="B3" t="str">
-        <v>tapd_1018072_scrollbar</v>
-      </c>
-      <c r="C3" t="str">
-        <v>staging</v>
-      </c>
-      <c r="D3" t="str">
-        <v>https://jgit.jingsocial.com:8000/jingsocial_fontend/jms-lead-microproject-frontend-static/merge_requests/1337</v>
-      </c>
-      <c r="E3" t="str">
-        <v>无冲突</v>
-      </c>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -1,62 +1,417 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>source_branch</t>
+  </si>
+  <si>
+    <t>target_branch</t>
+  </si>
+  <si>
+    <t>jms-edm-microproject-frontend-static</t>
+  </si>
+  <si>
+    <t>tapd_1018199_edm</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,18 +419,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,69 +1045,55 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="50.00390625" customWidth="1"/>
-    <col min="2" max="2" width="25.00390625" customWidth="1"/>
-    <col min="3" max="3" width="25.00390625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="7" width="33.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>source_branch</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>target_branch</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>jms-lead-microproject-frontend-static</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" t="str">
-        <v>tapd_1033987_ems</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" t="str">
-        <v>dev</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>jms-lead-microproject-frontend-static</v>
-      </c>
-      <c r="B3" t="str">
-        <v>tapd_1033987_ems</v>
-      </c>
-      <c r="C3" t="str">
-        <v>dev</v>
-      </c>
-      <c r="D3" t="str">
-        <v>https://jgit.jingsocial.com:8000/jingsocial_fontend/jms-lead-microproject-frontend-static/merge_requests/1352</v>
-      </c>
-      <c r="E3" t="str">
-        <v>无冲突</v>
-      </c>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError sqref="A1:E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -38,13 +38,25 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>jms-edm-microproject-frontend-static</t>
+    <t>jms-workwechat-microproject-frontend-static</t>
   </si>
   <si>
-    <t>tapd_1018199_edm</t>
+    <t>tapd_1038256_vCard</t>
   </si>
   <si>
-    <t>master</t>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>jms-electronicBusinessCard-frontend-static</t>
+  </si>
+  <si>
+    <t>feat/ECard1.4</t>
+  </si>
+  <si>
+    <t>jms-aggregateListPage-frontend-static</t>
+  </si>
+  <si>
+    <t>vue-components-cta-sdk</t>
   </si>
 </sst>
 </file>
@@ -1051,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
@@ -1086,14 +1098,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -38,25 +38,19 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>jms-workwechat-microproject-frontend-static</t>
+    <t>jingsocial_backend_admin_panel</t>
   </si>
   <si>
-    <t>tapd_1038256_vCard</t>
+    <t>feat_wanda5.0</t>
   </si>
   <si>
-    <t>staging</t>
+    <t>wanda</t>
   </si>
   <si>
-    <t>jms-electronicBusinessCard-frontend-static</t>
+    <t>jms-mainProgram-microproject-frontend-static</t>
   </si>
   <si>
-    <t>feat/ECard1.4</t>
-  </si>
-  <si>
-    <t>jms-aggregateListPage-frontend-static</t>
-  </si>
-  <si>
-    <t>vue-components-cta-sdk</t>
+    <t>jingsocial_v2_backend_vue2</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E19" sqref="A11:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1103,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1111,31 +1105,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="1"/>
@@ -1143,11 +1120,14 @@
     <row r="14" spans="4:4">
       <c r="D14" s="1"/>
     </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -38,19 +38,16 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>jingsocial_backend_admin_panel</t>
+    <t>leads-microProject-app</t>
   </si>
   <si>
-    <t>feat_wanda5.0</t>
+    <t>tapd_1056306</t>
   </si>
   <si>
-    <t>wanda</t>
+    <t>master</t>
   </si>
   <si>
-    <t>jms-mainProgram-microproject-frontend-static</t>
-  </si>
-  <si>
-    <t>jingsocial_v2_backend_vue2</t>
+    <t>userProfile-microProject-app</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A11:E19"/>
+      <selection activeCell="E23" sqref="A12:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1103,31 +1100,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
     </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="1"/>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -38,16 +38,13 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>leads-microProject-app</t>
+    <t>yunpianSms-microProject-app</t>
   </si>
   <si>
-    <t>tapd_1056306</t>
+    <t>tapd_1057126</t>
   </si>
   <si>
     <t>master</t>
-  </si>
-  <si>
-    <t>userProfile-microProject-app</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="A12:E23"/>
+      <selection activeCell="E22" sqref="A14:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1089,28 +1086,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -38,10 +38,10 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>yunpianSms-microProject-app</t>
+    <t>dataConnect-microProject-app</t>
   </si>
   <si>
-    <t>tapd_1057126</t>
+    <t>tapd_1057222</t>
   </si>
   <si>
     <t>master</t>
@@ -1051,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="A14:E22"/>
+      <selection activeCell="E26" sqref="A13:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1086,14 +1086,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1"/>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -38,13 +38,16 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>dataConnect-microProject-app</t>
+    <t>userProfile-microProject-app</t>
   </si>
   <si>
-    <t>tapd_1057222</t>
+    <t>tapd_1057032</t>
   </si>
   <si>
-    <t>master</t>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>dataManagement-microProject-app</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="A13:E26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1086,14 +1089,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E12" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -38,16 +38,13 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>userProfile-microProject-app</t>
+    <t>vue-components-cta-sdk</t>
   </si>
   <si>
-    <t>tapd_1057032</t>
+    <t>tapd_1057314</t>
   </si>
   <si>
     <t>staging</t>
-  </si>
-  <si>
-    <t>dataManagement-microProject-app</t>
   </si>
 </sst>
 </file>
@@ -1054,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="A4:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
@@ -1089,28 +1086,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="1"/>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -38,13 +38,16 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>vue-components-cta-sdk</t>
+    <t>fullStaffMarketing-microProject-app</t>
   </si>
   <si>
-    <t>tapd_1057314</t>
+    <t>tapd_1057140</t>
   </si>
   <si>
-    <t>staging</t>
+    <t>master</t>
+  </si>
+  <si>
+    <t>jms-allMemberMarketing-frontend-static</t>
   </si>
 </sst>
 </file>
@@ -1051,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A4:E14"/>
+      <selection activeCell="E22" sqref="A11:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
@@ -1086,14 +1089,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -38,16 +38,16 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>fullStaffMarketing-microProject-app</t>
+    <t>userProfile-microProject-app</t>
   </si>
   <si>
-    <t>tapd_1057140</t>
+    <t>tapd_1057032</t>
   </si>
   <si>
-    <t>master</t>
+    <t>dev</t>
   </si>
   <si>
-    <t>jms-allMemberMarketing-frontend-static</t>
+    <t>dataManagement-microProject-app</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="A11:E22"/>
+      <selection activeCell="E29" sqref="A12:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1100,17 +1100,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="1"/>
-    </row>
     <row r="15" spans="4:4">
       <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
+++ b/工具/github多项目批量申请mergeRequest/快速生成mergeRequest合并.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -38,16 +38,13 @@
     <t>target_branch</t>
   </si>
   <si>
-    <t>userProfile-microProject-app</t>
+    <t>jms-forms-frontend-static</t>
   </si>
   <si>
-    <t>tapd_1057032</t>
+    <t>feat_smallProgram</t>
   </si>
   <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>dataManagement-microProject-app</t>
+    <t>master</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1054,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="A12:E29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1089,20 +1086,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="1"/>
-    </row>
     <row r="16" spans="4:4">
       <c r="D16" s="1"/>
     </row>
@@ -1110,7 +1093,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>